--- a/Standorte_original.xlsx
+++ b/Standorte_original.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">Johann-Hösl-Straße 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Gut</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t xml:space="preserve">Erbprinz-Franz-Joseph-Straße 21</t>
   </si>
   <si>
-    <t xml:space="preserve">Mittel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Edeka</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Weiße-Lilien-Straße 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schlecht</t>
   </si>
 </sst>
 </file>
@@ -235,7 +226,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,7 +266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -303,14 +294,11 @@
       <c r="I2" s="0" t="n">
         <v>12.1109885387499</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -321,16 +309,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>93053</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>93053</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>48.9939355309596</v>
@@ -338,14 +326,11 @@
       <c r="I3" s="0" t="n">
         <v>12.1095435250156</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -356,16 +341,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>93053</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>93053</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>48.993541722171</v>
@@ -373,14 +358,11 @@
       <c r="I4" s="0" t="n">
         <v>12.1047996892199</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -391,16 +373,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>93053</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>93053</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>48.9954974087661</v>
@@ -408,14 +390,11 @@
       <c r="I5" s="0" t="n">
         <v>12.1189351434878</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -426,16 +405,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>93053</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>93053</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>49.0000819523051</v>
@@ -443,14 +422,11 @@
       <c r="I6" s="0" t="n">
         <v>12.1219135466844</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="K6" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -461,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>93053</v>
@@ -470,7 +446,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>49.0021133993883</v>
@@ -478,14 +454,11 @@
       <c r="I7" s="0" t="n">
         <v>12.1180193257255</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="K7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -496,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>93053</v>
@@ -505,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>49.0058769141618</v>
@@ -513,14 +486,11 @@
       <c r="I8" s="0" t="n">
         <v>12.1141365986488</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="K8" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -531,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>93053</v>
@@ -540,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>49.0102434865829</v>
@@ -548,14 +518,11 @@
       <c r="I9" s="0" t="n">
         <v>12.0994978621963</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="K9" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -566,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>93047</v>
@@ -575,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>49.0170257915633</v>
@@ -583,11 +550,8 @@
       <c r="I10" s="0" t="n">
         <v>12.0981891514223</v>
       </c>
-      <c r="J10" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="K10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
